--- a/Historicos/Historic_final_Chelsi Sedano.xlsx
+++ b/Historicos/Historic_final_Chelsi Sedano.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -456,7 +455,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>time_setup</t>
+          <t>opentime</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +480,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>time_setup2</t>
+          <t>closetime</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -571,8 +570,8 @@
       <c r="M2" t="n">
         <v>-6.06</v>
       </c>
-      <c r="N2" s="3" t="n">
-        <v>4.107766203703703</v>
+      <c r="N2" t="n">
+        <v>354911</v>
       </c>
       <c r="O2" t="n">
         <v>10000</v>
@@ -631,8 +630,8 @@
       <c r="M3" t="n">
         <v>1.68</v>
       </c>
-      <c r="N3" s="3" t="n">
-        <v>0.9804861111111111</v>
+      <c r="N3" t="n">
+        <v>84714</v>
       </c>
       <c r="O3" t="n">
         <v>10000</v>
@@ -691,8 +690,8 @@
       <c r="M4" t="n">
         <v>127.5</v>
       </c>
-      <c r="N4" s="3" t="n">
-        <v>0.4556018518518519</v>
+      <c r="N4" t="n">
+        <v>39364</v>
       </c>
       <c r="O4" t="n">
         <v>100</v>
@@ -753,8 +752,8 @@
       <c r="M5" t="n">
         <v>0.14</v>
       </c>
-      <c r="N5" s="3" t="n">
-        <v>1.814571759259259</v>
+      <c r="N5" t="n">
+        <v>156779</v>
       </c>
       <c r="O5" t="n">
         <v>100</v>
@@ -815,8 +814,8 @@
       <c r="M6" t="n">
         <v>-0.29</v>
       </c>
-      <c r="N6" s="3" t="n">
-        <v>0.00181712962962963</v>
+      <c r="N6" t="n">
+        <v>157</v>
       </c>
       <c r="O6" t="n">
         <v>100</v>
@@ -877,8 +876,8 @@
       <c r="M7" t="n">
         <v>-0.46</v>
       </c>
-      <c r="N7" s="3" t="n">
-        <v>0.003483796296296296</v>
+      <c r="N7" t="n">
+        <v>301</v>
       </c>
       <c r="O7" t="n">
         <v>100</v>
@@ -937,8 +936,8 @@
       <c r="M8" t="n">
         <v>9.970000000000001</v>
       </c>
-      <c r="N8" s="3" t="n">
-        <v>0.3585300925925926</v>
+      <c r="N8" t="n">
+        <v>30977</v>
       </c>
       <c r="O8" t="n">
         <v>100</v>
@@ -997,8 +996,8 @@
       <c r="M9" t="n">
         <v>0.35</v>
       </c>
-      <c r="N9" s="3" t="n">
-        <v>2.004965277777778</v>
+      <c r="N9" t="n">
+        <v>173229</v>
       </c>
       <c r="O9" t="n">
         <v>100</v>
@@ -1057,8 +1056,8 @@
       <c r="M10" t="n">
         <v>3.17</v>
       </c>
-      <c r="N10" s="3" t="n">
-        <v>1.091145833333333</v>
+      <c r="N10" t="n">
+        <v>94275</v>
       </c>
       <c r="O10" t="n">
         <v>100</v>
@@ -1119,8 +1118,8 @@
       <c r="M11" t="n">
         <v>2.37</v>
       </c>
-      <c r="N11" s="3" t="n">
-        <v>0.9608449074074074</v>
+      <c r="N11" t="n">
+        <v>83017</v>
       </c>
       <c r="O11" t="n">
         <v>100</v>
@@ -1181,8 +1180,8 @@
       <c r="M12" t="n">
         <v>-3.16</v>
       </c>
-      <c r="N12" s="3" t="n">
-        <v>0.7793055555555556</v>
+      <c r="N12" t="n">
+        <v>67332</v>
       </c>
       <c r="O12" t="n">
         <v>100</v>
@@ -1243,8 +1242,8 @@
       <c r="M13" t="n">
         <v>-30.23</v>
       </c>
-      <c r="N13" s="3" t="n">
-        <v>3.826226851851852</v>
+      <c r="N13" t="n">
+        <v>330586</v>
       </c>
       <c r="O13" t="n">
         <v>100</v>
@@ -1305,8 +1304,8 @@
       <c r="M14" t="n">
         <v>-3.51</v>
       </c>
-      <c r="N14" s="3" t="n">
-        <v>0.7837152777777778</v>
+      <c r="N14" t="n">
+        <v>67713</v>
       </c>
       <c r="O14" t="n">
         <v>100</v>
@@ -1367,8 +1366,8 @@
       <c r="M15" t="n">
         <v>-775</v>
       </c>
-      <c r="N15" s="3" t="n">
-        <v>0.05467592592592593</v>
+      <c r="N15" t="n">
+        <v>4724</v>
       </c>
       <c r="O15" t="n">
         <v>100</v>
@@ -1429,8 +1428,8 @@
       <c r="M16" t="n">
         <v>-5.66</v>
       </c>
-      <c r="N16" s="3" t="n">
-        <v>0.002025462962962963</v>
+      <c r="N16" t="n">
+        <v>175</v>
       </c>
       <c r="O16" t="n">
         <v>100</v>
@@ -1489,8 +1488,8 @@
       <c r="M17" t="n">
         <v>-14.39</v>
       </c>
-      <c r="N17" s="3" t="n">
-        <v>0.1444907407407408</v>
+      <c r="N17" t="n">
+        <v>12484</v>
       </c>
       <c r="O17" t="n">
         <v>100</v>
@@ -1549,8 +1548,8 @@
       <c r="M18" t="n">
         <v>-2.6</v>
       </c>
-      <c r="N18" s="3" t="n">
-        <v>0.1425694444444444</v>
+      <c r="N18" t="n">
+        <v>12318</v>
       </c>
       <c r="O18" t="n">
         <v>10000</v>
@@ -1611,8 +1610,8 @@
       <c r="M19" t="n">
         <v>-592.74</v>
       </c>
-      <c r="N19" s="3" t="n">
-        <v>0.2152083333333333</v>
+      <c r="N19" t="n">
+        <v>18594</v>
       </c>
       <c r="O19" t="n">
         <v>100</v>
@@ -1673,8 +1672,8 @@
       <c r="M20" t="n">
         <v>20.51</v>
       </c>
-      <c r="N20" s="3" t="n">
-        <v>0.8073148148148148</v>
+      <c r="N20" t="n">
+        <v>69752</v>
       </c>
       <c r="O20" t="n">
         <v>100</v>

--- a/Historicos/Historic_final_Chelsi Sedano.xlsx
+++ b/Historicos/Historic_final_Chelsi Sedano.xlsx
@@ -1,40 +1,183 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+  <si>
+    <t>position_id</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>opentime</t>
+  </si>
+  <si>
+    <t>volume_initial</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>tp</t>
+  </si>
+  <si>
+    <t>closetime</t>
+  </si>
+  <si>
+    <t>second_price</t>
+  </si>
+  <si>
+    <t>swap</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>tiempo</t>
+  </si>
+  <si>
+    <t>pip_size</t>
+  </si>
+  <si>
+    <t>pips</t>
+  </si>
+  <si>
+    <t>pips_acum</t>
+  </si>
+  <si>
+    <t>profit_acum</t>
+  </si>
+  <si>
+    <t>EURUSD</t>
+  </si>
+  <si>
+    <t>USDCAD</t>
+  </si>
+  <si>
+    <t>#JP225_Z21</t>
+  </si>
+  <si>
+    <t>NDAQ.O</t>
+  </si>
+  <si>
+    <t>#USSPX500</t>
+  </si>
+  <si>
+    <t>#UK100</t>
+  </si>
+  <si>
+    <t>AAPL.O</t>
+  </si>
+  <si>
+    <t>ADBE.O</t>
+  </si>
+  <si>
+    <t>CME.O</t>
+  </si>
+  <si>
+    <t>NFLX.O</t>
+  </si>
+  <si>
+    <t>AMZN.O</t>
+  </si>
+  <si>
+    <t>UBER.N</t>
+  </si>
+  <si>
+    <t>SILVER</t>
+  </si>
+  <si>
+    <t>BTCUSD</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>sell</t>
+  </si>
+  <si>
+    <t>1.17160</t>
+  </si>
+  <si>
+    <t>4362.00</t>
+  </si>
+  <si>
+    <t>4358.00</t>
+  </si>
+  <si>
+    <t>596.00</t>
+  </si>
+  <si>
+    <t>3390.00</t>
+  </si>
+  <si>
+    <t>46.61</t>
+  </si>
+  <si>
+    <t>22.480</t>
+  </si>
+  <si>
+    <t>55750.00</t>
+  </si>
+  <si>
+    <t>195.00</t>
+  </si>
+  <si>
+    <t>193.00</t>
+  </si>
+  <si>
+    <t>44610.00</t>
+  </si>
+  <si>
+    <t>197.00</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +192,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,1271 +509,1131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>position_id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>symbol</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>opentime</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>volume_initial</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>sl</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>tp</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closetime</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>second_price</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>swap</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>profit</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>tiempo</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>pip_size</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>pips</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>pips_acum</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>profit_acum</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>45386433</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2">
         <v>44456.66265046296</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.01</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>1.17765</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>1.17160</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
         <v>44460.77041666667</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>1.17159</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>-0.2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>-6.06</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>354911</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>10000</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>-60.60000000000176</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>-60.60000000000176</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>-6.06</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:18">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>45428523</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>USDCAD</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2">
         <v>44459.9877662037</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.04</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>1.28145</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>1.27</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>1.29</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="2">
         <v>44460.96825231481</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>1.28199</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>-0.13</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>1.68</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>84714</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>10000</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>5.399999999999849</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>-55.20000000000191</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>-4.379999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:18">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>45428536</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>#JP225_Z21</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2">
         <v>44459.99046296296</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.06</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>29575</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>44460.44606481482</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>30000</v>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>127.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>39364</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>100</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>42500</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>42444.8</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>123.12</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:18">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>45452652</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NDAQ.O</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2">
         <v>44460.87368055555</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.04</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>191.69</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>190.88</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>195.00</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="n">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="2">
         <v>44462.68825231482</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>195.17</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0.14</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>156779</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>100</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>347.999999999999</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>42792.8</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>123.26</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:18">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>45452873</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>#USSPX500</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2">
         <v>44460.88503472223</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.04</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>4364.1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>4362.00</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6">
         <v>4381</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="2">
         <v>44460.88685185185</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>4361.95</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>-0.29</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>157</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>100</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>-215.0000000000546</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>42577.79999999994</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>122.97</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:18">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>45452934</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>#USSPX500</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="2">
         <v>44460.88809027777</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.08</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>4363.75</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>4358.00</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7">
         <v>4381</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="2">
         <v>44460.89157407408</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>4358.05</v>
       </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>-0.46</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>301</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>100</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>-569.9999999999818</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>42007.79999999996</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>122.51</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:18">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>45453061</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#UK100</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n">
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2">
         <v>44460.89280092593</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.08</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>6972.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="n">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>44461.25133101852</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>6990.15</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>-0.27</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>9.970000000000001</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>30977</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>100</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>1784.999999999945</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>43792.7999999999</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>132.48</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:18">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>45453141</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AAPL.O</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2">
         <v>44460.8959375</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.1</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>143.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="n">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>44462.90090277778</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>146.75</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.35</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>173229</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>100</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>350</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>44142.7999999999</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>132.83</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:18">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>45473438</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>ADBE.O</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="n">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
         <v>44461.79950231482</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.25</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>626.25</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>615</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>651</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="2">
         <v>44462.89064814815</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>631.96</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>-0.03</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>3.17</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>94275</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>100</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>571.0000000000036</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>44713.7999999999</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>136</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:18">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>45476819</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>CME.O</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2">
         <v>44461.88554398148</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.45</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>187.74</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>180</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>193.00</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="n">
+      <c r="I11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="2">
         <v>44462.84638888889</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>193</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>-0.01</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>2.37</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>83017</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>100</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>525.9999999999991</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>45239.7999999999</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>138.37</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:18">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>45479486</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>NFLX.O</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="n">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="2">
         <v>44461.9175</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.45</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>589.3099999999999</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>596.00</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12">
         <v>577</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="2">
         <v>44462.69680555556</v>
       </c>
-      <c r="K12" t="n">
+      <c r="K12">
         <v>596.34</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L12">
         <v>-0.02</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12">
         <v>-3.16</v>
       </c>
-      <c r="N12" t="n">
+      <c r="N12">
         <v>67332</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>100</v>
       </c>
-      <c r="P12" t="n">
+      <c r="P12">
         <v>-703.0000000000086</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="Q12">
         <v>44536.79999999989</v>
       </c>
-      <c r="R12" t="n">
+      <c r="R12">
         <v>135.21</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:18">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>45503825</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>AMZN.O</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="n">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="2">
         <v>44462.86203703703</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.06</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>3423.43</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>3390.00</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13">
         <v>3457</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="2">
         <v>44466.68826388889</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K13">
         <v>3377.82</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L13">
         <v>-0.72</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13">
         <v>-30.23</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N13">
         <v>330586</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>100</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P13">
         <v>-4560.999999999967</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q13">
         <v>39975.79999999993</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R13">
         <v>104.98</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:18">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>45504575</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>UBER.N</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="n">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
         <v>44462.91229166667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>45.44</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>46.61</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
         <v>43.76</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="2">
         <v>44463.69600694445</v>
       </c>
-      <c r="K14" t="n">
+      <c r="K14">
         <v>46.61</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L14">
         <v>-0.01</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14">
         <v>-3.51</v>
       </c>
-      <c r="N14" t="n">
+      <c r="N14">
         <v>67713</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>100</v>
       </c>
-      <c r="P14" t="n">
+      <c r="P14">
         <v>-117.0000000000002</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="Q14">
         <v>39858.79999999993</v>
       </c>
-      <c r="R14" t="n">
+      <c r="R14">
         <v>101.47</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:18">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>45504667</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>SILVER</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="n">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="2">
         <v>44462.92054398148</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>22.64</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>22.480</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15">
         <v>22.7</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="2">
         <v>44462.97521990741</v>
       </c>
-      <c r="K15" t="n">
+      <c r="K15">
         <v>22.485</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <v>-775</v>
       </c>
-      <c r="N15" t="n">
+      <c r="N15">
         <v>4724</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>100</v>
       </c>
-      <c r="P15" t="n">
+      <c r="P15">
         <v>-15.50000000000011</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="Q15">
         <v>39843.29999999993</v>
       </c>
-      <c r="R15" t="n">
+      <c r="R15">
         <v>-673.53</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:18">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>45504874</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BTCUSD</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="n">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2">
         <v>44462.93763888889</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.06</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>44704.57</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>44610.00</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="n">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="2">
         <v>44462.93966435185</v>
       </c>
-      <c r="K16" t="n">
+      <c r="K16">
         <v>44610.25</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>-5.66</v>
       </c>
-      <c r="N16" t="n">
+      <c r="N16">
         <v>175</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>100</v>
       </c>
-      <c r="P16" t="n">
+      <c r="P16">
         <v>-9431.999999999971</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q16">
         <v>30411.29999999996</v>
       </c>
-      <c r="R16" t="n">
+      <c r="R16">
         <v>-679.1899999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:18">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>45504934</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BTCUSD</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="n">
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="2">
         <v>44462.94233796297</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.06</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>44840.61</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17">
         <v>41216</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I17">
         <v>45300</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="2">
         <v>44463.0868287037</v>
       </c>
-      <c r="K17" t="n">
+      <c r="K17">
         <v>44600.7</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17">
         <v>-1.49</v>
       </c>
-      <c r="M17" t="n">
+      <c r="M17">
         <v>-14.39</v>
       </c>
-      <c r="N17" t="n">
+      <c r="N17">
         <v>12484</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>100</v>
       </c>
-      <c r="P17" t="n">
+      <c r="P17">
         <v>-23991.00000000035</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="Q17">
         <v>6420.29999999961</v>
       </c>
-      <c r="R17" t="n">
+      <c r="R17">
         <v>-693.5799999999999</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>45504963</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>EURUSD</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="n">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="2">
         <v>44462.94438657408</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.05</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>1.17463</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="n">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>44463.08695601852</v>
       </c>
-      <c r="K18" t="n">
+      <c r="K18">
         <v>1.17411</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L18">
         <v>-0.26</v>
       </c>
-      <c r="M18" t="n">
+      <c r="M18">
         <v>-2.6</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N18">
         <v>12318</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>10000</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P18">
         <v>-5.20000000000076</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18">
         <v>6415.099999999609</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18">
         <v>-696.1799999999999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:18">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>45751162</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>BTCUSD</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>sell</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="n">
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2">
         <v>44475.87664351852</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.5</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>54584.79</v>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>55750.00</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="n">
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>44476.09185185185</v>
       </c>
-      <c r="K19" t="n">
+      <c r="K19">
         <v>55770.26</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19">
         <v>-15.28</v>
       </c>
-      <c r="M19" t="n">
+      <c r="M19">
         <v>-592.74</v>
       </c>
-      <c r="N19" t="n">
+      <c r="N19">
         <v>18594</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>100</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P19">
         <v>-118547.0000000001</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19">
         <v>-112131.9000000005</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19">
         <v>-1288.92</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:18">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>45751358</v>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>NDAQ.O</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>buy</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="n">
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="2">
         <v>44475.88311342592</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.5</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>195.16</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>197.00</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="n">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="2">
         <v>44476.69042824074</v>
       </c>
-      <c r="K20" t="n">
+      <c r="K20">
         <v>197.01</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L20">
         <v>-0.18</v>
       </c>
-      <c r="M20" t="n">
+      <c r="M20">
         <v>20.51</v>
       </c>
-      <c r="N20" t="n">
+      <c r="N20">
         <v>69752</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>100</v>
       </c>
-      <c r="P20" t="n">
+      <c r="P20">
         <v>184.9999999999994</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20">
         <v>-111946.9000000005</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20">
         <v>-1268.41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>